--- a/Legislatives 2024/tableau-final-accord-frontpopulaire-leg2024-1.xlsx
+++ b/Legislatives 2024/tableau-final-accord-frontpopulaire-leg2024-1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EELV\ELECTIONS\LEGISLATIVES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdos-santos\Documents\Perso\Elections\Legislatives 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{392637F1-971B-4549-82EF-8C21E1EAF382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D8F55395-75ED-DD41-B97C-47492D4AEC3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Circos par sensibilité" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="557">
   <si>
     <t>Circo</t>
   </si>
@@ -1693,12 +1692,15 @@
   </si>
   <si>
     <t>99-08</t>
+  </si>
+  <si>
+    <t>49-02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2104,15 +2106,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790321D3-A56F-F44C-9E05-4C6D6C0C3479}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A228" sqref="A228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8658,7 +8660,7 @@
     </row>
     <row r="227" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
-        <v>169</v>
+        <v>556</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>17</v>
